--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -238,26 +238,28 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="E1">
-            <v>3</v>
-          </cell>
-          <cell r="G1">
+          <cell r="H1">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="H2">
             <v>0</v>
           </cell>
         </row>
-        <row r="2">
-          <cell r="G2">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>21</v>
+        <row r="3">
+          <cell r="H3">
+            <v>10</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5">
-            <v>21</v>
+          <cell r="H5">
+            <v>113</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>101</v>
           </cell>
         </row>
       </sheetData>
@@ -280,20 +282,20 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>12</v>
+            <v>3</v>
           </cell>
           <cell r="G1">
-            <v>3</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>58</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="5">
@@ -320,28 +322,26 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="H1">
+          <cell r="E1">
             <v>12</v>
           </cell>
+          <cell r="G1">
+            <v>2</v>
+          </cell>
         </row>
         <row r="2">
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3">
-            <v>10</v>
+          <cell r="G2">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>58</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="H5">
-            <v>113</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>101</v>
+          <cell r="G5">
+            <v>27</v>
           </cell>
         </row>
       </sheetData>
@@ -716,7 +716,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -731,23 +731,23 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <f>[4]Sheet1!$H$2</f>
+        <f>[2]Sheet1!$H$2</f>
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <f>[4]Sheet1!$H$3</f>
+        <f>[2]Sheet1!$H$3</f>
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <f>[4]Sheet1!$H$1</f>
+        <f>[2]Sheet1!$H$1</f>
         <v>12</v>
       </c>
       <c r="E3" s="1">
-        <f>[4]Sheet1!$H$6</f>
+        <f>[2]Sheet1!$H$6</f>
         <v>101</v>
       </c>
       <c r="F3" s="1">
-        <f>[4]Sheet1!$H$5</f>
+        <f>[2]Sheet1!$H$5</f>
         <v>113</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -755,7 +755,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -764,23 +764,23 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <f>[2]Sheet1!$G$1</f>
+        <f>[3]Sheet1!$G$1</f>
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>[2]Sheet1!$G$2</f>
+        <f>[3]Sheet1!$G$2</f>
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <f>[2]Sheet1!$E$1</f>
+        <f>[3]Sheet1!$E$1</f>
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <f>[2]Sheet1!$G$5</f>
+        <f>[3]Sheet1!$G$5</f>
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <f>[2]Sheet1!$G$4</f>
+        <f>[3]Sheet1!$G$4</f>
         <v>21</v>
       </c>
       <c r="G4" s="4"/>
@@ -792,23 +792,23 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <f>[3]Sheet1!$G$1</f>
-        <v>3</v>
+        <f>[4]Sheet1!$G$1</f>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f>[3]Sheet1!$G$2</f>
-        <v>5</v>
+        <f>[4]Sheet1!$G$2</f>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
-        <f>[3]Sheet1!$E$1</f>
+        <f>[4]Sheet1!$E$1</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
-        <f>[3]Sheet1!$G$5</f>
-        <v>21</v>
+        <f>[4]Sheet1!$G$5</f>
+        <v>27</v>
       </c>
       <c r="F5" s="1">
-        <f>[3]Sheet1!$G$4</f>
+        <f>[4]Sheet1!$G$4</f>
         <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.65296803652968038</v>
+        <v>0.68036529680365299</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -326,7 +326,7 @@
             <v>12</v>
           </cell>
           <cell r="G1">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="2">
@@ -336,7 +336,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>58</v>
+            <v>69</v>
           </cell>
         </row>
         <row r="5">
@@ -716,14 +716,14 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
       </c>
       <c r="B5" s="1">
         <f>[4]Sheet1!$G$1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f>[4]Sheet1!$G$2</f>
@@ -809,14 +809,14 @@
       </c>
       <c r="F5" s="1">
         <f>[4]Sheet1!$G$4</f>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.68036529680365299</v>
+        <v>0.64782608695652177</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -239,7 +239,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="2">
@@ -249,17 +249,17 @@
         </row>
         <row r="3">
           <cell r="H3">
-            <v>10</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="5">
           <cell r="H5">
-            <v>113</v>
+            <v>77</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>101</v>
+            <v>72</v>
           </cell>
         </row>
       </sheetData>
@@ -323,7 +323,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="G1">
             <v>3</v>
@@ -345,8 +345,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -683,7 +683,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -736,26 +736,26 @@
       </c>
       <c r="C3" s="1">
         <f>[2]Sheet1!$H$3</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <f>[2]Sheet1!$H$1</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <f>[2]Sheet1!$H$6</f>
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$H$5</f>
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="D5" s="1">
         <f>[4]Sheet1!$E$1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <f>[4]Sheet1!$G$5</f>
@@ -816,7 +816,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.64782608695652177</v>
+        <v>0.61855670103092786</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -323,30 +323,30 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="G1">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>6</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>69</v>
+            <v>85</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>27</v>
+            <v>47</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -683,7 +683,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -716,14 +716,14 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -793,30 +793,30 @@
       </c>
       <c r="B5" s="1">
         <f>[4]Sheet1!$G$1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <f>[4]Sheet1!$G$2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <f>[4]Sheet1!$E$1</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <f>[4]Sheet1!$G$5</f>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <f>[4]Sheet1!$G$4</f>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.61855670103092786</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -201,22 +201,22 @@
             <v>4</v>
           </cell>
           <cell r="G1">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>27</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>0</v>
+            <v>6</v>
           </cell>
         </row>
       </sheetData>
@@ -693,11 +693,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$G$1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$G$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$E$1</f>
@@ -705,18 +705,18 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$G$5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$G$4</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.66666666666666663</v>
+        <v>0.68544600938967137</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -201,22 +201,22 @@
             <v>4</v>
           </cell>
           <cell r="G1">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>30</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>6</v>
+            <v>16</v>
           </cell>
         </row>
       </sheetData>
@@ -693,11 +693,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$G$1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$G$2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$E$1</f>
@@ -705,18 +705,18 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$G$5</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$G$4</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.68544600938967137</v>
+        <v>0.72558139534883725</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -295,12 +295,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>21</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>21</v>
+            <v>20</v>
           </cell>
         </row>
       </sheetData>
@@ -777,11 +777,11 @@
       </c>
       <c r="E4" s="1">
         <f>[3]Sheet1!$G$5</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <f>[3]Sheet1!$G$4</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -816,7 +816,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.72558139534883725</v>
+        <v>0.72429906542056077</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -254,12 +254,12 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>77</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>72</v>
+            <v>75</v>
           </cell>
         </row>
       </sheetData>
@@ -744,11 +744,11 @@
       </c>
       <c r="E3" s="1">
         <f>[2]Sheet1!$H$6</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$H$5</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.72429906542056077</v>
+        <v>0.72811059907834097</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -323,10 +323,10 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="E1">
-            <v>12</v>
+            <v>13</v>
           </cell>
           <cell r="G1">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="2">
@@ -336,7 +336,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>85</v>
+            <v>88</v>
           </cell>
         </row>
         <row r="5">
@@ -683,7 +683,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -716,14 +716,14 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(H2:H3)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
       </c>
       <c r="B5" s="1">
         <f>[4]Sheet1!$G$1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f>[4]Sheet1!$G$2</f>
@@ -801,7 +801,7 @@
       </c>
       <c r="D5" s="1">
         <f>[4]Sheet1!$E$1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <f>[4]Sheet1!$G$5</f>
@@ -809,14 +809,14 @@
       </c>
       <c r="F5" s="1">
         <f>[4]Sheet1!$G$4</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.72811059907834097</v>
+        <v>0.71818181818181814</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -211,7 +211,7 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>32</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="5">
@@ -326,22 +326,22 @@
             <v>13</v>
           </cell>
           <cell r="G1">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>88</v>
+            <v>91</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>47</v>
+            <v>53</v>
           </cell>
         </row>
       </sheetData>
@@ -709,14 +709,14 @@
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$G$4</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -793,11 +793,11 @@
       </c>
       <c r="B5" s="1">
         <f>[4]Sheet1!$G$1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <f>[4]Sheet1!$G$2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <f>[4]Sheet1!$E$1</f>
@@ -805,18 +805,18 @@
       </c>
       <c r="E5" s="1">
         <f>[4]Sheet1!$G$5</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <f>[4]Sheet1!$G$4</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.71818181818181814</v>
+        <v>0.74208144796380093</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -326,12 +326,12 @@
             <v>13</v>
           </cell>
           <cell r="G1">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="4">
@@ -341,7 +341,7 @@
         </row>
         <row r="5">
           <cell r="G5">
-            <v>53</v>
+            <v>58</v>
           </cell>
         </row>
       </sheetData>
@@ -716,7 +716,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -793,11 +793,11 @@
       </c>
       <c r="B5" s="1">
         <f>[4]Sheet1!$G$1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <f>[4]Sheet1!$G$2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <f>[4]Sheet1!$E$1</f>
@@ -805,7 +805,7 @@
       </c>
       <c r="E5" s="1">
         <f>[4]Sheet1!$G$5</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1">
         <f>[4]Sheet1!$G$4</f>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.74208144796380093</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -326,22 +326,22 @@
             <v>13</v>
           </cell>
           <cell r="G1">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="4">
           <cell r="G4">
-            <v>91</v>
+            <v>98</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>58</v>
+            <v>75</v>
           </cell>
         </row>
       </sheetData>
@@ -716,7 +716,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -793,11 +793,11 @@
       </c>
       <c r="B5" s="1">
         <f>[4]Sheet1!$G$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <f>[4]Sheet1!$G$2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <f>[4]Sheet1!$E$1</f>
@@ -805,18 +805,18 @@
       </c>
       <c r="E5" s="1">
         <f>[4]Sheet1!$G$5</f>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1">
         <f>[4]Sheet1!$G$4</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.76470588235294112</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -201,12 +201,12 @@
             <v>4</v>
           </cell>
           <cell r="G1">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="2">
           <cell r="G2">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="4">
@@ -216,7 +216,7 @@
         </row>
         <row r="5">
           <cell r="G5">
-            <v>16</v>
+            <v>19</v>
           </cell>
         </row>
       </sheetData>
@@ -693,11 +693,11 @@
       </c>
       <c r="B2" s="1">
         <f>[1]Sheet1!$G$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <f>[1]Sheet1!$G$2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <f>[1]Sheet1!$E$1</f>
@@ -705,7 +705,7 @@
       </c>
       <c r="E2" s="1">
         <f>[1]Sheet1!$G$5</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1">
         <f>[1]Sheet1!$G$4</f>
@@ -716,7 +716,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM($B:$B)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="H3" s="4">
         <f>SUM($C:$C)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.81578947368421051</v>
+        <v>0.82894736842105265</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -336,12 +336,12 @@
         </row>
         <row r="4">
           <cell r="G4">
-            <v>98</v>
+            <v>108</v>
           </cell>
         </row>
         <row r="5">
           <cell r="G5">
-            <v>75</v>
+            <v>85</v>
           </cell>
         </row>
       </sheetData>
@@ -805,18 +805,18 @@
       </c>
       <c r="E5" s="1">
         <f>[4]Sheet1!$G$5</f>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1">
         <f>[4]Sheet1!$G$4</f>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.82894736842105265</v>
+        <v>0.83613445378151263</v>
       </c>
       <c r="I7" s="3"/>
     </row>

--- a/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
+++ b/QA/Tests/CRUD/Create/_Test_Suite_Statistics_for_Folders.xlsx
@@ -239,7 +239,7 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="H1">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="2">
@@ -254,12 +254,12 @@
         </row>
         <row r="5">
           <cell r="H5">
-            <v>80</v>
+            <v>83</v>
           </cell>
         </row>
         <row r="6">
           <cell r="H6">
-            <v>75</v>
+            <v>76</v>
           </cell>
         </row>
       </sheetData>
@@ -683,7 +683,7 @@
       </c>
       <c r="H1" s="4">
         <f>SUM($D:$D)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -740,15 +740,15 @@
       </c>
       <c r="D3" s="1">
         <f>[2]Sheet1!$H$1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <f>[2]Sheet1!$H$6</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1">
         <f>[2]Sheet1!$H$5</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -816,7 +816,7 @@
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> SUM($F:$F)</f>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="H6" s="4">
         <f xml:space="preserve"> SUM($E:$E)</f>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="H7" s="7">
         <f>H6/H5</f>
-        <v>0.83613445378151263</v>
+        <v>0.82987551867219922</v>
       </c>
       <c r="I7" s="3"/>
     </row>
